--- a/media/uploads/Excel_1.xlsx
+++ b/media/uploads/Excel_1.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagul\Downloads\CLINICS 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagul\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FB1ED7-B94F-41F2-9255-C0AB0810E86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED8FF08-FD86-4CDB-8A7C-6693E3F09E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0EA16A49-1561-4912-B50B-BA871B26EBB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>msg88</t>
+  </si>
   <si>
     <t>msg1</t>
   </si>
@@ -133,6 +147,195 @@
   </si>
   <si>
     <t>msg36</t>
+  </si>
+  <si>
+    <t>msg37</t>
+  </si>
+  <si>
+    <t>msg38</t>
+  </si>
+  <si>
+    <t>msg39</t>
+  </si>
+  <si>
+    <t>msg40</t>
+  </si>
+  <si>
+    <t>msg41</t>
+  </si>
+  <si>
+    <t>msg42</t>
+  </si>
+  <si>
+    <t>msg43</t>
+  </si>
+  <si>
+    <t>msg44</t>
+  </si>
+  <si>
+    <t>msg45</t>
+  </si>
+  <si>
+    <t>msg46</t>
+  </si>
+  <si>
+    <t>msg47</t>
+  </si>
+  <si>
+    <t>msg48</t>
+  </si>
+  <si>
+    <t>msg49</t>
+  </si>
+  <si>
+    <t>msg50</t>
+  </si>
+  <si>
+    <t>msg51</t>
+  </si>
+  <si>
+    <t>msg52</t>
+  </si>
+  <si>
+    <t>msg53</t>
+  </si>
+  <si>
+    <t>msg54</t>
+  </si>
+  <si>
+    <t>msg55</t>
+  </si>
+  <si>
+    <t>msg56</t>
+  </si>
+  <si>
+    <t>msg57</t>
+  </si>
+  <si>
+    <t>msg58</t>
+  </si>
+  <si>
+    <t>msg59</t>
+  </si>
+  <si>
+    <t>msg60</t>
+  </si>
+  <si>
+    <t>msg61</t>
+  </si>
+  <si>
+    <t>msg62</t>
+  </si>
+  <si>
+    <t>msg63</t>
+  </si>
+  <si>
+    <t>msg64</t>
+  </si>
+  <si>
+    <t>msg65</t>
+  </si>
+  <si>
+    <t>msg66</t>
+  </si>
+  <si>
+    <t>msg67</t>
+  </si>
+  <si>
+    <t>msg68</t>
+  </si>
+  <si>
+    <t>msg69</t>
+  </si>
+  <si>
+    <t>msg70</t>
+  </si>
+  <si>
+    <t>msg71</t>
+  </si>
+  <si>
+    <t>msg72</t>
+  </si>
+  <si>
+    <t>msg73</t>
+  </si>
+  <si>
+    <t>msg74</t>
+  </si>
+  <si>
+    <t>msg75</t>
+  </si>
+  <si>
+    <t>msg76</t>
+  </si>
+  <si>
+    <t>msg77</t>
+  </si>
+  <si>
+    <t>msg78</t>
+  </si>
+  <si>
+    <t>msg79</t>
+  </si>
+  <si>
+    <t>msg80</t>
+  </si>
+  <si>
+    <t>msg81</t>
+  </si>
+  <si>
+    <t>msg82</t>
+  </si>
+  <si>
+    <t>msg83</t>
+  </si>
+  <si>
+    <t>msg84</t>
+  </si>
+  <si>
+    <t>msg85</t>
+  </si>
+  <si>
+    <t>msg86</t>
+  </si>
+  <si>
+    <t>msg87</t>
+  </si>
+  <si>
+    <t>msg89</t>
+  </si>
+  <si>
+    <t>msg90</t>
+  </si>
+  <si>
+    <t>msg91</t>
+  </si>
+  <si>
+    <t>msg92</t>
+  </si>
+  <si>
+    <t>msg93</t>
+  </si>
+  <si>
+    <t>msg94</t>
+  </si>
+  <si>
+    <t>msg95</t>
+  </si>
+  <si>
+    <t>msg96</t>
+  </si>
+  <si>
+    <t>msg97</t>
+  </si>
+  <si>
+    <t>msg98</t>
+  </si>
+  <si>
+    <t>msg99</t>
+  </si>
+  <si>
+    <t>msg100</t>
   </si>
 </sst>
 </file>
@@ -143,13 +346,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,39 +407,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -269,9 +472,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -304,6 +524,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,13 +602,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -380,6 +610,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -444,320 +681,1140 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78AD9BD-C035-4D54-B4BA-12267A10F3B7}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>917812825818</v>
+        <v>919894107264</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>919894107264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>919894107264</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>919894107264</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>919894107264</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>919894107264</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>919894107264</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>919894107264</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>919894107264</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>919894107264</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>919894107264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>919894107264</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>919894107264</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>919894107264</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>919894107264</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>919894107264</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>919894107264</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>919894107264</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>919894107264</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>919894107264</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>919894107264</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>919894107264</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>919894107264</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>919894107264</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>919894107264</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>919894107264</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>919894107264</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>919894107264</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>919894107264</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>919894107264</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>919894107264</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>919894107264</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>919894107264</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>919894107264</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>919894107264</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>919894107264</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>919894107264</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>919894107264</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>919894107264</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>919894107264</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>919894107264</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>919894107264</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>919894107264</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>919894107264</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>919894107264</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>919894107264</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>919894107264</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>919894107264</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>919894107264</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>919894107264</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>919894107264</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>919894107264</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>919894107264</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>919894107264</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>919894107264</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>919894107264</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>919894107264</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>919894107264</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>919894107264</v>
+      </c>
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>919894107264</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>919894107264</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>919894107264</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>919894107264</v>
+      </c>
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>919894107264</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>919894107264</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010028A35922D9062449BBD1ED47A172D3B0" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20923a9145197f59d62c404a302f864b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="25f8ee31-97c5-4c94-80c3-764537ab3f84" xmlns:ns4="aea6cfdb-8c38-4a8f-8db2-6031ff9fca1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c07710bf92a7ea2e3d5029385180da44" ns3:_="" ns4:_="">
+    <xsd:import namespace="25f8ee31-97c5-4c94-80c3-764537ab3f84"/>
+    <xsd:import namespace="aea6cfdb-8c38-4a8f-8db2-6031ff9fca1d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="25f8ee31-97c5-4c94-80c3-764537ab3f84" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="10" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="15" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aea6cfdb-8c38-4a8f-8db2-6031ff9fca1d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="13" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="25f8ee31-97c5-4c94-80c3-764537ab3f84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8218CB8-EAF3-4A89-BC80-C9BCAC0CD998}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="25f8ee31-97c5-4c94-80c3-764537ab3f84"/>
+    <ds:schemaRef ds:uri="aea6cfdb-8c38-4a8f-8db2-6031ff9fca1d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13A5A8FD-2AA4-4C8A-8356-E4594ADF65E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7AD56D-BAA3-4844-ADA1-AC795889622A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aea6cfdb-8c38-4a8f-8db2-6031ff9fca1d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="25f8ee31-97c5-4c94-80c3-764537ab3f84"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>